--- a/result/result1-2.xlsx
+++ b/result/result1-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17000" windowHeight="7100"/>
+    <workbookView windowWidth="25600" windowHeight="12470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,18 +94,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,21 +128,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -165,17 +151,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,55 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +220,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +243,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -279,7 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +280,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,19 +328,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,31 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,73 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,37 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,8 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +529,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,17 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,6 +574,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,26 +604,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,177 +617,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1165,954 +1157,2433 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
       <c r="A3" s="7">
-        <v>0.714030703320243</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7">
-        <v>0.13752387292318</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>0.242252648662114</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>0.136217493112147</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.367663516350811</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4.31277e-26</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
       <c r="A4" s="7">
-        <v>1.42806140664049</v>
+        <v>0.2</v>
       </c>
       <c r="B4" s="7">
-        <v>0.195948515907639</v>
+        <v>0.018611701</v>
       </c>
       <c r="C4" s="7">
-        <v>-0.203598388590755</v>
+        <v>0.172133605</v>
       </c>
       <c r="D4" s="7">
-        <v>0.226004877478391</v>
+        <v>0.002413809</v>
       </c>
       <c r="E4" s="7">
-        <v>-0.184924648081469</v>
+        <v>0.046700385</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
       <c r="A5" s="7">
-        <v>2.14209210996073</v>
+        <v>0.4</v>
       </c>
       <c r="B5" s="7">
-        <v>-0.157415588749655</v>
+        <v>0.061119236</v>
       </c>
       <c r="C5" s="7">
-        <v>-0.675830197105566</v>
+        <v>0.236289251</v>
       </c>
       <c r="D5" s="7">
-        <v>-0.146081342657052</v>
+        <v>0.029579341</v>
       </c>
       <c r="E5" s="7">
-        <v>-0.743615733496838</v>
+        <v>0.238550469</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
       <c r="A6" s="7">
-        <v>2.85612281328097</v>
+        <v>0.6</v>
       </c>
       <c r="B6" s="7">
-        <v>-0.517206893120359</v>
+        <v>0.109624009</v>
       </c>
       <c r="C6" s="7">
-        <v>-0.150502638418604</v>
+        <v>0.245565718</v>
       </c>
       <c r="D6" s="7">
-        <v>-0.559304470579598</v>
+        <v>0.093503043</v>
       </c>
       <c r="E6" s="7">
-        <v>-0.213280265147636</v>
+        <v>0.372322977</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
       <c r="A7" s="7">
-        <v>3.57015351660121</v>
+        <v>0.8</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.251506598128447</v>
+        <v>0.15795003</v>
       </c>
       <c r="C7" s="7">
-        <v>0.854712777834498</v>
+        <v>0.231369485</v>
       </c>
       <c r="D7" s="7">
-        <v>-0.29153854610575</v>
+        <v>0.166487374</v>
       </c>
       <c r="E7" s="7">
-        <v>0.909325777775411</v>
+        <v>0.332930002</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
       <c r="A8" s="7">
-        <v>4.28418421992146</v>
+        <v>1</v>
       </c>
       <c r="B8" s="7">
-        <v>0.456672868214773</v>
+        <v>0.198269431</v>
       </c>
       <c r="C8" s="7">
-        <v>0.874474832568988</v>
+        <v>0.159675694</v>
       </c>
       <c r="D8" s="7">
-        <v>0.475922093746394</v>
+        <v>0.220258459</v>
       </c>
       <c r="E8" s="7">
-        <v>0.976959054450577</v>
+        <v>0.196058048</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
       <c r="A9" s="7">
-        <v>4.9982149232417</v>
+        <v>1.2</v>
       </c>
       <c r="B9" s="7">
-        <v>0.691893418120836</v>
+        <v>0.216892533</v>
       </c>
       <c r="C9" s="7">
-        <v>-0.317715977687979</v>
+        <v>0.015500362</v>
       </c>
       <c r="D9" s="7">
-        <v>0.758928649225542</v>
+        <v>0.243051106</v>
       </c>
       <c r="E9" s="7">
-        <v>-0.323417669882627</v>
+        <v>0.029273066</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
       <c r="A10" s="7">
-        <v>5.71224562656194</v>
+        <v>1.4</v>
       </c>
       <c r="B10" s="7">
-        <v>0.0731428925206753</v>
+        <v>0.201270005</v>
       </c>
       <c r="C10" s="7">
-        <v>-1.21689676317747</v>
+        <v>-0.175669691</v>
       </c>
       <c r="D10" s="7">
-        <v>0.09689868668021</v>
+        <v>0.230794503</v>
       </c>
       <c r="E10" s="7">
-        <v>-1.30942632454029</v>
+        <v>-0.156533441</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
       <c r="A11" s="7">
-        <v>6.42627632988219</v>
+        <v>1.6</v>
       </c>
       <c r="B11" s="7">
-        <v>-0.661651274416773</v>
+        <v>0.146501391</v>
       </c>
       <c r="C11" s="7">
-        <v>-0.594997786639748</v>
+        <v>-0.369255488</v>
       </c>
       <c r="D11" s="7">
-        <v>-0.71098458322423</v>
+        <v>0.178700186</v>
       </c>
       <c r="E11" s="7">
-        <v>-0.678091710728778</v>
+        <v>-0.366651769</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
       <c r="A12" s="7">
-        <v>7.14030703320243</v>
+        <v>1.8</v>
       </c>
       <c r="B12" s="7">
-        <v>-0.603771702960406</v>
+        <v>0.055566137</v>
       </c>
       <c r="C12" s="7">
-        <v>0.725924366554461</v>
+        <v>-0.533139158</v>
       </c>
       <c r="D12" s="7">
-        <v>-0.659155910079578</v>
+        <v>0.08492292</v>
       </c>
       <c r="E12" s="7">
-        <v>0.788866970149376</v>
+        <v>-0.564506676</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8">
-        <v>7.85433773652267</v>
+        <v>2</v>
       </c>
       <c r="B13" s="8">
-        <v>0.136899716331302</v>
+        <v>-0.06318237</v>
       </c>
       <c r="C13" s="8">
-        <v>1.08992582502635</v>
+        <v>-0.643358758</v>
       </c>
       <c r="D13" s="8">
-        <v>0.140935264415007</v>
+        <v>-0.042914033</v>
       </c>
       <c r="E13" s="8">
-        <v>1.19002249154135</v>
+        <v>-0.700504759</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8">
-        <v>8.56836843984291</v>
+        <v>2.2</v>
       </c>
       <c r="B14" s="8">
-        <v>0.631213627140401</v>
+        <v>-0.196599629</v>
       </c>
       <c r="C14" s="8">
-        <v>0.164551421728735</v>
+        <v>-0.676192232</v>
       </c>
       <c r="D14" s="8">
-        <v>0.68662917595528</v>
+        <v>-0.189284559</v>
       </c>
       <c r="E14" s="8">
-        <v>0.184153057399</v>
+        <v>-0.747130806</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8">
-        <v>9.28239914316316</v>
+        <v>2.4</v>
       </c>
       <c r="B15" s="8">
-        <v>0.376146961467223</v>
+        <v>-0.327406994</v>
       </c>
       <c r="C15" s="8">
-        <v>-0.759598012402319</v>
+        <v>-0.615777943</v>
       </c>
       <c r="D15" s="8">
-        <v>0.404224956430711</v>
+        <v>-0.335101307</v>
       </c>
       <c r="E15" s="8">
-        <v>-0.822529958384982</v>
+        <v>-0.694030325</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8">
-        <v>9.9964298464834</v>
+        <v>2.6</v>
       </c>
       <c r="B16" s="8">
-        <v>-0.189684833061547</v>
+        <v>-0.436606306</v>
       </c>
       <c r="C16" s="8">
-        <v>-0.647536917494135</v>
+        <v>-0.461311541</v>
       </c>
       <c r="D16" s="8">
-        <v>-0.211269565333653</v>
+        <v>-0.460139413</v>
       </c>
       <c r="E16" s="8">
-        <v>-0.704991815544852</v>
+        <v>-0.539964956</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8">
-        <v>10.7104605498036</v>
+        <v>2.8</v>
       </c>
       <c r="B17" s="8">
-        <v>-0.404240864262186</v>
+        <v>-0.50659128</v>
       </c>
       <c r="C17" s="8">
-        <v>0.0537344244813212</v>
+        <v>-0.227149028</v>
       </c>
       <c r="D17" s="8">
-        <v>-0.435640345701342</v>
+        <v>-0.54501137</v>
       </c>
       <c r="E17" s="8">
-        <v>0.0882927105872224</v>
+        <v>-0.295247164</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8">
-        <v>11.4244912531239</v>
+        <v>3</v>
       </c>
       <c r="B18" s="8">
-        <v>-0.203172639915151</v>
+        <v>-0.523895905</v>
       </c>
       <c r="C18" s="8">
-        <v>0.398791815258284</v>
+        <v>0.060406485</v>
       </c>
       <c r="D18" s="8">
-        <v>-0.207027876040508</v>
+        <v>-0.573805974</v>
       </c>
       <c r="E18" s="8">
-        <v>0.438513924156248</v>
+        <v>0.015221486</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8">
-        <v>12.1385219564441</v>
+        <v>3.2</v>
       </c>
       <c r="B19" s="8">
-        <v>0.0375016469585545</v>
+        <v>-0.48166271</v>
       </c>
       <c r="C19" s="8">
-        <v>0.233225353966712</v>
+        <v>0.361328854</v>
       </c>
       <c r="D19" s="8">
-        <v>0.0499402957476245</v>
+        <v>-0.535720238</v>
       </c>
       <c r="E19" s="8">
-        <v>0.230317718761904</v>
+        <v>0.36849574</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8">
-        <v>12.8525526597644</v>
+        <v>3.4</v>
       </c>
       <c r="B20" s="8">
-        <v>0.138118661705954</v>
+        <v>-0.380169041</v>
       </c>
       <c r="C20" s="8">
-        <v>0.0859451850761635</v>
+        <v>0.648903154</v>
       </c>
       <c r="D20" s="8">
-        <v>0.139047283693894</v>
+        <v>-0.428601122</v>
       </c>
       <c r="E20" s="8">
-        <v>0.068690840137218</v>
+        <v>0.692012546</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8">
-        <v>13.5665833630846</v>
+        <v>3.6</v>
       </c>
       <c r="B21" s="8">
-        <v>0.202869901905615</v>
+        <v>-0.225542125</v>
       </c>
       <c r="C21" s="8">
-        <v>0.0956900877785178</v>
+        <v>0.88480996</v>
       </c>
       <c r="D21" s="8">
-        <v>0.202397778313183</v>
+        <v>-0.26391706</v>
       </c>
       <c r="E21" s="8">
-        <v>0.109710424279777</v>
+        <v>0.941252089</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8">
-        <v>14.2806140664049</v>
+        <v>3.8</v>
       </c>
       <c r="B22" s="8">
-        <v>0.222008284929887</v>
+        <v>-0.032553124</v>
       </c>
       <c r="C22" s="8">
-        <v>-0.0981033324689413</v>
+        <v>1.026829559</v>
       </c>
       <c r="D22" s="8">
-        <v>0.238317959070152</v>
+        <v>-0.058112351</v>
       </c>
       <c r="E22" s="8">
-        <v>-0.0764823494200599</v>
+        <v>1.099784264</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8">
-        <v>14.9946447697251</v>
+        <v>4</v>
       </c>
       <c r="B23" s="8">
-        <v>0.0129308881398029</v>
+        <v>0.177310381</v>
       </c>
       <c r="C23" s="8">
-        <v>-0.477778381619176</v>
+        <v>1.051234</v>
       </c>
       <c r="D23" s="8">
-        <v>0.0284383401029028</v>
+        <v>0.168299816</v>
       </c>
       <c r="E23" s="8">
-        <v>-0.497077772612093</v>
+        <v>1.143161464</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8">
-        <v>15.7086754730453</v>
+        <v>4.2</v>
       </c>
       <c r="B24" s="8">
-        <v>-0.352889981292485</v>
+        <v>0.379657829</v>
       </c>
       <c r="C24" s="8">
-        <v>-0.426699332765547</v>
+        <v>0.951858131</v>
       </c>
       <c r="D24" s="8">
-        <v>-0.366554704396063</v>
+        <v>0.390272437</v>
       </c>
       <c r="E24" s="8">
-        <v>-0.479698644272191</v>
+        <v>1.054081768</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8">
-        <v>16.4227061763656</v>
+        <v>4.4</v>
       </c>
       <c r="B25" s="8">
-        <v>-0.433225214273457</v>
+        <v>0.550309931</v>
       </c>
       <c r="C25" s="8">
-        <v>0.266972099626033</v>
+        <v>0.736801678</v>
       </c>
       <c r="D25" s="8">
-        <v>-0.47282013208647</v>
+        <v>0.581251765</v>
       </c>
       <c r="E25" s="8">
-        <v>0.269410615895379</v>
+        <v>0.835418082</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8">
-        <v>17.1367368796858</v>
+        <v>4.6</v>
       </c>
       <c r="B26" s="8">
-        <v>0.00275741166143601</v>
+        <v>0.668109962</v>
       </c>
       <c r="C26" s="8">
-        <v>0.841625207848194</v>
+        <v>0.428143722</v>
       </c>
       <c r="D26" s="8">
-        <v>-0.0127685468813102</v>
+        <v>0.717203628</v>
       </c>
       <c r="E26" s="8">
-        <v>0.89910415331541</v>
+        <v>0.508657079</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8">
-        <v>17.8507675830061</v>
+        <v>4.8</v>
       </c>
       <c r="B27" s="8">
-        <v>0.525663210781346</v>
+        <v>0.717609504</v>
       </c>
       <c r="C27" s="8">
-        <v>0.448789171153703</v>
+        <v>0.060389986</v>
       </c>
       <c r="D27" s="8">
-        <v>0.559459512315611</v>
+        <v>0.779816522</v>
       </c>
       <c r="E27" s="8">
-        <v>0.510433243563699</v>
+        <v>0.108743676</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8">
-        <v>18.5647982863263</v>
+        <v>5</v>
       </c>
       <c r="B28" s="8">
-        <v>0.493108910864461</v>
+        <v>0.69132329</v>
       </c>
       <c r="C28" s="8">
-        <v>-0.544812624560805</v>
+        <v>-0.3210494</v>
       </c>
       <c r="D28" s="8">
-        <v>0.53777299741039</v>
+        <v>0.758347829</v>
       </c>
       <c r="E28" s="8">
-        <v>-0.58345235421161</v>
+        <v>-0.327326956</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8">
-        <v>19.2788289896466</v>
+        <v>5.2</v>
       </c>
       <c r="B29" s="8">
-        <v>-0.10935710621093</v>
+        <v>0.59068581</v>
       </c>
       <c r="C29" s="8">
-        <v>-0.953249221164629</v>
+        <v>-0.679203294</v>
       </c>
       <c r="D29" s="8">
-        <v>-0.106655746233333</v>
+        <v>0.651183223</v>
       </c>
       <c r="E29" s="8">
-        <v>-1.03190377384873</v>
+        <v>-0.731264584</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8">
-        <v>19.9928596929668</v>
+        <v>5.4</v>
       </c>
       <c r="B30" s="8">
-        <v>-0.592399020969002</v>
+        <v>0.423697167</v>
       </c>
       <c r="C30" s="8">
-        <v>-0.255953811106208</v>
+        <v>-0.976295232</v>
       </c>
       <c r="D30" s="8">
-        <v>-0.638124317879439</v>
+        <v>0.47205419</v>
       </c>
       <c r="E30" s="8">
-        <v>-0.293052129421398</v>
+        <v>-1.043443162</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8">
-        <v>20.706890396287</v>
+        <v>5.6</v>
       </c>
       <c r="B31" s="8">
-        <v>-0.415595828467435</v>
+        <v>0.207325981</v>
       </c>
       <c r="C31" s="8">
-        <v>0.68808089013071</v>
+        <v>-1.166854646</v>
       </c>
       <c r="D31" s="8">
-        <v>-0.449788571473685</v>
+        <v>0.24088031</v>
       </c>
       <c r="E31" s="8">
-        <v>0.737398805224223</v>
+        <v>-1.24892724</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8">
-        <v>21.4209210996073</v>
+        <v>5.8</v>
       </c>
       <c r="B32" s="8">
-        <v>0.17926506350774</v>
+        <v>-0.034236616</v>
       </c>
       <c r="C32" s="8">
-        <v>0.79442535221734</v>
+        <v>-1.225957201</v>
       </c>
       <c r="D32" s="8">
-        <v>0.190473511255804</v>
+        <v>-0.018938913</v>
       </c>
       <c r="E32" s="8">
-        <v>0.862768892048492</v>
+        <v>-1.32598606</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8">
-        <v>22.1349518029275</v>
+        <v>6</v>
       </c>
       <c r="B33" s="8">
-        <v>0.513477692194576</v>
+        <v>-0.273940792</v>
       </c>
       <c r="C33" s="8">
-        <v>0.0708303889211256</v>
+        <v>-1.148801811</v>
       </c>
       <c r="D33" s="8">
-        <v>0.553597700637121</v>
+        <v>-0.279830579</v>
       </c>
       <c r="E33" s="8">
-        <v>0.0715280256279919</v>
+        <v>-1.258557178</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8">
-        <v>22.8489825062478</v>
+        <v>6.2</v>
       </c>
       <c r="B34" s="8">
-        <v>0.302338983816248</v>
+        <v>-0.485330494</v>
       </c>
       <c r="C34" s="8">
-        <v>-0.573882306096407</v>
+        <v>-0.94571124</v>
       </c>
       <c r="D34" s="8">
-        <v>0.32107483536432</v>
+        <v>-0.512988719</v>
       </c>
       <c r="E34" s="8">
-        <v>-0.61620559175927</v>
+        <v>-1.051175891</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8">
-        <v>23.563013209568</v>
+        <v>6.4</v>
       </c>
       <c r="B35" s="8">
-        <v>-0.131037008712372</v>
+        <v>-0.645412357</v>
       </c>
       <c r="C35" s="8">
-        <v>-0.526273690262592</v>
+        <v>-0.640829944</v>
       </c>
       <c r="D35" s="8">
-        <v>-0.144508204502472</v>
+        <v>-0.692515491</v>
       </c>
       <c r="E35" s="8">
-        <v>-0.561473124716247</v>
+        <v>-0.727444369</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8">
-        <v>24.2770439128883</v>
+        <v>6.6</v>
       </c>
       <c r="B36" s="8">
-        <v>-0.349148953569845</v>
+        <v>-0.737255257</v>
       </c>
       <c r="C36" s="8">
-        <v>-0.066615012007427</v>
+        <v>-0.27009778</v>
       </c>
       <c r="D36" s="8">
-        <v>-0.371051614914222</v>
+        <v>-0.798637793</v>
       </c>
       <c r="E36" s="8">
-        <v>-0.0552473963991403</v>
+        <v>-0.324030717</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8">
-        <v>24.9910746162085</v>
+        <v>6.8</v>
       </c>
       <c r="B37" s="8">
-        <v>-0.257635286073058</v>
+        <v>-0.751964497</v>
       </c>
       <c r="C37" s="8">
-        <v>0.275708251845268</v>
+        <v>0.122600385</v>
       </c>
       <c r="D37" s="8">
-        <v>-0.267030210647976</v>
+        <v>-0.81973214</v>
       </c>
       <c r="E37" s="8">
-        <v>0.292221057012335</v>
+        <v>0.115944623</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8">
-        <v>25.7051053195287</v>
+        <v>7</v>
       </c>
       <c r="B38" s="8">
-        <v>-0.0233223963030026</v>
+        <v>-0.6897405</v>
       </c>
       <c r="C38" s="8">
-        <v>0.346232859884696</v>
+        <v>0.494021883</v>
       </c>
       <c r="D38" s="8">
-        <v>-0.0224966139323263</v>
+        <v>-0.753015818</v>
       </c>
       <c r="E38" s="8">
-        <v>0.353899405062504</v>
+        <v>0.5409023</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8">
-        <v>26.419136022849</v>
+        <v>7.2</v>
       </c>
       <c r="B39" s="8">
-        <v>0.20161137518767</v>
+        <v>-0.557798176</v>
       </c>
       <c r="C39" s="8">
-        <v>0.263506706286016</v>
+        <v>0.81306995</v>
       </c>
       <c r="D39" s="8">
-        <v>0.207027630377945</v>
+        <v>-0.609321308</v>
       </c>
       <c r="E39" s="8">
-        <v>0.271763386593767</v>
+        <v>0.87931502</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8">
-        <v>27.1331667261692</v>
+        <v>7.4</v>
       </c>
       <c r="B40" s="8">
-        <v>0.316401957971376</v>
+        <v>-0.370868829</v>
       </c>
       <c r="C40" s="8">
-        <v>0.0262581586274487</v>
+        <v>1.037478268</v>
       </c>
       <c r="D40" s="8">
-        <v>0.330309324843644</v>
+        <v>-0.408188118</v>
       </c>
       <c r="E40" s="8">
-        <v>0.0403572345817372</v>
+        <v>1.113946543</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8">
-        <v>27.8471974294895</v>
+        <v>7.6</v>
       </c>
       <c r="B41" s="8">
-        <v>0.202974217143866</v>
+        <v>-0.150944294</v>
       </c>
       <c r="C41" s="8">
-        <v>-0.351248473063103</v>
+        <v>1.140574676</v>
       </c>
       <c r="D41" s="8">
-        <v>0.219957400280972</v>
+        <v>-0.171557303</v>
       </c>
       <c r="E41" s="8">
-        <v>-0.35847653466357</v>
+        <v>1.231283914</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8">
-        <v>28.5612281328097</v>
+        <v>7.8</v>
       </c>
       <c r="B42" s="8">
-        <v>-0.141342827844426</v>
+        <v>0.076896739</v>
       </c>
       <c r="C42" s="8">
-        <v>-0.540935246892892</v>
+        <v>1.117171853</v>
       </c>
       <c r="D42" s="8">
-        <v>-0.139530284294726</v>
+        <v>0.075499263</v>
       </c>
       <c r="E42" s="8">
-        <v>-0.57707333882969</v>
+        <v>1.216880967</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8">
-        <v>29.27525883613</v>
+        <v>8</v>
       </c>
       <c r="B43" s="8">
-        <v>-0.433212848417142</v>
+        <v>0.288105182</v>
       </c>
       <c r="C43" s="8">
-        <v>-0.180547343370686</v>
+        <v>0.976868556</v>
       </c>
       <c r="D43" s="8">
-        <v>-0.459181042197793</v>
+        <v>0.30652105</v>
       </c>
       <c r="E43" s="8">
-        <v>-0.213177007116352</v>
+        <v>1.07300377</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8">
-        <v>29.9892895394502</v>
+        <v>8.2</v>
       </c>
       <c r="B44" s="8">
-        <v>-0.320362475048576</v>
+        <v>0.461248592</v>
       </c>
       <c r="C44" s="8">
-        <v>0.492709697765555</v>
+        <v>0.740963968</v>
       </c>
       <c r="D44" s="8">
-        <v>-0.349086458109978</v>
+        <v>0.497418182</v>
       </c>
       <c r="E44" s="8">
-        <v>0.517555436710029</v>
+        <v>0.820284983</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8">
-        <v>30.7033202427704</v>
+        <v>8.4</v>
       </c>
       <c r="B45" s="8">
-        <v>0.164523267954555</v>
+        <v>0.580170421</v>
       </c>
       <c r="C45" s="8">
-        <v>0.731966237958965</v>
+        <v>0.440459349</v>
       </c>
       <c r="D45" s="8">
-        <v>0.165433213828592</v>
+        <v>0.629548988</v>
       </c>
       <c r="E45" s="8">
-        <v>0.789613828590593</v>
+        <v>0.491478183</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8">
-        <v>31.4173509460907</v>
+        <v>8.6</v>
       </c>
       <c r="B46" s="8">
-        <v>0.523974282940338</v>
+        <v>0.635593855</v>
       </c>
       <c r="C46" s="8">
-        <v>0.163060618610024</v>
+        <v>0.112436537</v>
       </c>
       <c r="D46" s="8">
-        <v>0.561012985772357</v>
+        <v>0.691524995</v>
       </c>
       <c r="E46" s="8">
-        <v>0.192977410462268</v>
+        <v>0.125392108</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8">
-        <v>32.1313816494109</v>
+        <v>8.8</v>
       </c>
       <c r="B47" s="8">
-        <v>0.342355232398132</v>
+        <v>0.625898688</v>
       </c>
       <c r="C47" s="8">
-        <v>-0.629279688733874</v>
+        <v>-0.205008462</v>
       </c>
       <c r="D47" s="8">
-        <v>0.372067082253085</v>
+        <v>0.679816277</v>
       </c>
       <c r="E47" s="8">
-        <v>-0.667182608891777</v>
+        <v>-0.237631568</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8">
-        <v>32.8454123527312</v>
+        <v>9</v>
       </c>
       <c r="B48" s="8">
-        <v>-0.206914694003874</v>
+        <v>0.556018887</v>
       </c>
       <c r="C48" s="8">
-        <v>-0.750039742173052</v>
+        <v>-0.485303054</v>
       </c>
       <c r="D48" s="8">
-        <v>-0.215422351808232</v>
+        <v>0.60068663</v>
       </c>
       <c r="E48" s="8">
-        <v>-0.812382799272137</v>
+        <v>-0.540049196</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8">
-        <v>33.5594430560514</v>
+        <v>9.2</v>
       </c>
       <c r="B49" s="8">
-        <v>-0.53056353550722</v>
+        <v>0.436308913</v>
       </c>
       <c r="C49" s="8">
-        <v>-0.0718829384423228</v>
+        <v>-0.697951169</v>
       </c>
       <c r="D49" s="8">
-        <v>-0.570017317760612</v>
+        <v>0.469449793</v>
       </c>
       <c r="E49" s="8">
-        <v>-0.0839686004481807</v>
+        <v>-0.758060309</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8">
-        <v>34.2734737593717</v>
+        <v>9.4</v>
       </c>
       <c r="B50" s="8">
-        <v>-0.303620576288261</v>
+        <v>0.282992637</v>
       </c>
       <c r="C50" s="8">
-        <v>0.635661262644678</v>
+        <v>-0.81900163</v>
       </c>
       <c r="D50" s="8">
-        <v>-0.326827657415813</v>
+        <v>0.303372121</v>
       </c>
       <c r="E50" s="8">
-        <v>0.676499928416153</v>
+        <v>-0.887108514</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8">
-        <v>34.9875044626919</v>
+        <v>9.6</v>
       </c>
       <c r="B51" s="8">
-        <v>0.199109193660301</v>
+        <v>0.115172339</v>
       </c>
       <c r="C51" s="8">
-        <v>0.635074516311221</v>
+        <v>-0.84351622</v>
       </c>
       <c r="D51" s="8">
-        <v>0.211897012420637</v>
+        <v>0.121167166</v>
       </c>
       <c r="E51" s="8">
-        <v>0.684082606874849</v>
+        <v>-0.918121225</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8">
-        <v>35.7015351660121</v>
+        <v>9.8</v>
       </c>
       <c r="B52" s="8">
-        <v>0.456248370471044</v>
+        <v>-0.04852018</v>
       </c>
       <c r="C52" s="8">
-        <v>0.0373623215875839</v>
+        <v>-0.779882445</v>
       </c>
       <c r="D52" s="8">
-        <v>0.487960926762075</v>
+        <v>-0.05730809</v>
       </c>
       <c r="E52" s="8">
-        <v>0.0350171010936358</v>
+        <v>-0.851172722</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8">
-        <v>36.4155658693324</v>
+        <v>10</v>
       </c>
       <c r="B53" s="8">
-        <v>0.271086921476946</v>
+        <v>-0.191991446</v>
       </c>
       <c r="C53" s="8">
-        <v>-0.491102803564457</v>
+        <v>-0.64461811</v>
       </c>
       <c r="D53" s="8">
-        <v>0.287102438195351</v>
+        <v>-0.213780712</v>
       </c>
       <c r="E53" s="8">
-        <v>-0.522013976729421</v>
+        <v>-0.701740908</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8">
-        <v>37.1295965726526</v>
+        <v>10.2</v>
       </c>
       <c r="B54" s="8">
-        <v>-0.115666494850464</v>
+        <v>-0.303089802</v>
       </c>
       <c r="C54" s="8">
-        <v>-0.502745471861559</v>
+        <v>-0.460312474</v>
       </c>
       <c r="D54" s="8">
-        <v>-0.124122764428385</v>
+        <v>-0.334206054</v>
       </c>
       <c r="E54" s="8">
-        <v>-0.532096343598862</v>
+        <v>-0.495453288</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8">
-        <v>37.8436272759729</v>
+        <v>10.4</v>
       </c>
       <c r="B55" s="8">
-        <v>-0.35276141631662</v>
+        <v>-0.374589383</v>
       </c>
       <c r="C55" s="8">
-        <v>-0.12702536910046</v>
+        <v>-0.253101088</v>
       </c>
       <c r="D55" s="8">
-        <v>-0.372800178926808</v>
+        <v>-0.41013987</v>
       </c>
       <c r="E55" s="8">
-        <v>-0.129332050046207</v>
+        <v>-0.261810739</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8">
-        <v>38.5576579792931</v>
+        <v>10.6</v>
       </c>
       <c r="B56" s="8">
-        <v>-0.292121051319976</v>
+        <v>-0.404558546</v>
       </c>
       <c r="C56" s="8">
-        <v>0.275569021938757</v>
+        <v>-0.049238927</v>
       </c>
       <c r="D56" s="8">
-        <v>-0.306699539169009</v>
+        <v>-0.439032092</v>
       </c>
       <c r="E56" s="8">
-        <v>0.287460034200213</v>
+        <v>-0.029441275</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8">
-        <v>39.2716886826134</v>
+        <v>10.8</v>
       </c>
       <c r="B57" s="8">
-        <v>-0.0147811781727794</v>
+        <v>-0.395923455</v>
       </c>
       <c r="C57" s="8">
-        <v>0.452572550152103</v>
+        <v>0.130961563</v>
       </c>
       <c r="D57" s="8">
-        <v>-0.0175857501128963</v>
+        <v>-0.423946137</v>
       </c>
       <c r="E57" s="8">
-        <v>0.472003776940293</v>
+        <v>0.170871038</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8">
-        <v>39.9857193859336</v>
+        <v>11</v>
       </c>
       <c r="B58" s="8">
-        <v>0.277798005808408</v>
+        <v>-0.354653986</v>
       </c>
       <c r="C58" s="8">
-        <v>0.312327135966248</v>
+        <v>0.273891401</v>
       </c>
       <c r="D58" s="8">
-        <v>0.289326624010618</v>
+        <v>-0.374674356</v>
       </c>
       <c r="E58" s="8">
-        <v>0.332138379704221</v>
+        <v>0.312385637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="B59" s="9">
+        <v>-0.289952874</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.363592014</v>
+      </c>
+      <c r="D59" s="9">
+        <v>-0.302500236</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.400907266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="B60" s="9">
+        <v>-0.212931029</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0.397984009</v>
+      </c>
+      <c r="D60" s="9">
+        <v>-0.217758807</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0.437663596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9">
+        <v>11.6</v>
+      </c>
+      <c r="B61" s="9">
+        <v>-0.13382174</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0.386537903</v>
+      </c>
+      <c r="D61" s="9">
+        <v>-0.130914946</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0.422641931</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="B62" s="9">
+        <v>-0.060487221</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0.342537609</v>
+      </c>
+      <c r="D62" s="9">
+        <v>-0.051479733</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0.366260333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9">
+        <v>12</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.001956809</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0.279996043</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.014096369</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0.287492563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0.051212954</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0.212932301</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.063347515</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0.206020629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.087668028</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0.153813465</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.097364449</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0.137248648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0.113858648</v>
+      </c>
+      <c r="C66" s="9">
+        <v>0.111313541</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.119747041</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0.090775357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0.133534005</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0.088733823</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.135407666</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0.070079172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="9">
+        <v>13</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0.150544293</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0.083886626</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.149308376</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0.072108285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="B69" s="9">
+        <v>0.167832448</v>
+      </c>
+      <c r="C69" s="9">
+        <v>0.090082415</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.165158476</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.0876377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0.186648471</v>
+      </c>
+      <c r="C70" s="9">
+        <v>0.097288106</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0.184428258</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0.104156101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0.206039496</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0.09391742</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.206058647</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.109295141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="B72" s="9">
+        <v>0.222818985</v>
+      </c>
+      <c r="C72" s="9">
+        <v>0.069740814</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.226666993</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.09233655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="9">
+        <v>14</v>
+      </c>
+      <c r="B73" s="9">
+        <v>0.232123467</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0.018560756</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.240991563</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.045537857</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="B74" s="9">
+        <v>0.228371369</v>
+      </c>
+      <c r="C74" s="9">
+        <v>-0.060268661</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0.242729743</v>
+      </c>
+      <c r="E74" s="9">
+        <v>-0.033899879</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="9">
+        <v>14.4</v>
+      </c>
+      <c r="B75" s="9">
+        <v>0.206692656</v>
+      </c>
+      <c r="C75" s="9">
+        <v>-0.159482102</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0.225016451</v>
+      </c>
+      <c r="E75" s="9">
+        <v>-0.1475502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="9">
+        <v>14.6</v>
+      </c>
+      <c r="B76" s="9">
+        <v>0.163605732</v>
+      </c>
+      <c r="C76" s="9">
+        <v>-0.272911492</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.182865646</v>
+      </c>
+      <c r="E76" s="9">
+        <v>-0.274219363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="B77" s="9">
+        <v>0.097502992</v>
+      </c>
+      <c r="C77" s="9">
+        <v>-0.386484222</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.115696542</v>
+      </c>
+      <c r="E77" s="9">
+        <v>-0.395616925</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="9">
+        <v>15</v>
+      </c>
+      <c r="B78" s="9">
+        <v>0.010366698</v>
+      </c>
+      <c r="C78" s="9">
+        <v>-0.479848386</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0.025769882</v>
+      </c>
+      <c r="E78" s="9">
+        <v>-0.499496807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="B79" s="9">
+        <v>-0.091869652</v>
+      </c>
+      <c r="C79" s="9">
+        <v>-0.534889752</v>
+      </c>
+      <c r="D79" s="9">
+        <v>-0.081796677</v>
+      </c>
+      <c r="E79" s="9">
+        <v>-0.56872253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="B80" s="9">
+        <v>-0.200152504</v>
+      </c>
+      <c r="C80" s="9">
+        <v>-0.538538172</v>
+      </c>
+      <c r="D80" s="9">
+        <v>-0.198139792</v>
+      </c>
+      <c r="E80" s="9">
+        <v>-0.584524898</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="B81" s="9">
+        <v>-0.303309374</v>
+      </c>
+      <c r="C81" s="9">
+        <v>-0.482771085</v>
+      </c>
+      <c r="D81" s="9">
+        <v>-0.311234439</v>
+      </c>
+      <c r="E81" s="9">
+        <v>-0.535078686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="B82" s="9">
+        <v>-0.389181258</v>
+      </c>
+      <c r="C82" s="9">
+        <v>-0.366089603</v>
+      </c>
+      <c r="D82" s="9">
+        <v>-0.407654553</v>
+      </c>
+      <c r="E82" s="9">
+        <v>-0.418167077</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="9">
+        <v>16</v>
+      </c>
+      <c r="B83" s="9">
+        <v>-0.446111043</v>
+      </c>
+      <c r="C83" s="9">
+        <v>-0.195175089</v>
+      </c>
+      <c r="D83" s="9">
+        <v>-0.474415818</v>
+      </c>
+      <c r="E83" s="9">
+        <v>-0.240236211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="B84" s="9">
+        <v>-0.464608835</v>
+      </c>
+      <c r="C84" s="9">
+        <v>0.015194136</v>
+      </c>
+      <c r="D84" s="9">
+        <v>-0.500626809</v>
+      </c>
+      <c r="E84" s="9">
+        <v>-0.015812293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="9">
+        <v>16.4</v>
+      </c>
+      <c r="B85" s="9">
+        <v>-0.438995501</v>
+      </c>
+      <c r="C85" s="9">
+        <v>0.241278106</v>
+      </c>
+      <c r="D85" s="9">
+        <v>-0.478602314</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0.2398647</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="9">
+        <v>16.6</v>
+      </c>
+      <c r="B86" s="9">
+        <v>-0.368334703</v>
+      </c>
+      <c r="C86" s="9">
+        <v>0.463132173</v>
+      </c>
+      <c r="D86" s="9">
+        <v>-0.405307921</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0.487628848</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="B87" s="9">
+        <v>-0.255598016</v>
+      </c>
+      <c r="C87" s="9">
+        <v>0.656944291</v>
+      </c>
+      <c r="D87" s="9">
+        <v>-0.286462987</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.692428315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="9">
+        <v>17</v>
+      </c>
+      <c r="B88" s="9">
+        <v>-0.109437962</v>
+      </c>
+      <c r="C88" s="9">
+        <v>0.792932924</v>
+      </c>
+      <c r="D88" s="9">
+        <v>-0.132118981</v>
+      </c>
+      <c r="E88" s="9">
+        <v>0.840175563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="B89" s="9">
+        <v>0.05633388</v>
+      </c>
+      <c r="C89" s="9">
+        <v>0.850684564</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0.044590118</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0.912714058</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="9">
+        <v>17.4</v>
+      </c>
+      <c r="B90" s="9">
+        <v>0.22498966</v>
+      </c>
+      <c r="C90" s="9">
+        <v>0.821033081</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0.226805572</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0.893298162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="9">
+        <v>17.6</v>
+      </c>
+      <c r="B91" s="9">
+        <v>0.378898099</v>
+      </c>
+      <c r="C91" s="9">
+        <v>0.70395839</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0.395449458</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0.777438447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="9">
+        <v>17.8</v>
+      </c>
+      <c r="B92" s="9">
+        <v>0.501341946</v>
+      </c>
+      <c r="C92" s="9">
+        <v>0.508739173</v>
+      </c>
+      <c r="D92" s="9">
+        <v>0.531915938</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0.573941632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="9">
+        <v>18</v>
+      </c>
+      <c r="B93" s="9">
+        <v>0.578411089</v>
+      </c>
+      <c r="C93" s="9">
+        <v>0.254041181</v>
+      </c>
+      <c r="D93" s="9">
+        <v>0.620438296</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.30187799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="9">
+        <v>18.2</v>
+      </c>
+      <c r="B94" s="9">
+        <v>0.600736442</v>
+      </c>
+      <c r="C94" s="9">
+        <v>-0.033876178</v>
+      </c>
+      <c r="D94" s="9">
+        <v>0.649861629</v>
+      </c>
+      <c r="E94" s="9">
+        <v>-0.011993722</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="9">
+        <v>18.4</v>
+      </c>
+      <c r="B95" s="9">
+        <v>0.564888141</v>
+      </c>
+      <c r="C95" s="9">
+        <v>-0.322578747</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0.61445515</v>
+      </c>
+      <c r="E95" s="9">
+        <v>-0.340527174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="9">
+        <v>18.6</v>
+      </c>
+      <c r="B96" s="9">
+        <v>0.473151925</v>
+      </c>
+      <c r="C96" s="9">
+        <v>-0.588788823</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0.516411735</v>
+      </c>
+      <c r="E96" s="9">
+        <v>-0.62984896</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="B97" s="9">
+        <v>0.332938057</v>
+      </c>
+      <c r="C97" s="9">
+        <v>-0.801660889</v>
+      </c>
+      <c r="D97" s="9">
+        <v>0.366992936</v>
+      </c>
+      <c r="E97" s="9">
+        <v>-0.852333879</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="9">
+        <v>19</v>
+      </c>
+      <c r="B98" s="9">
+        <v>0.158000258</v>
+      </c>
+      <c r="C98" s="9">
+        <v>-0.932400739</v>
+      </c>
+      <c r="D98" s="9">
+        <v>0.180742854</v>
+      </c>
+      <c r="E98" s="9">
+        <v>-0.995546956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="9">
+        <v>19.2</v>
+      </c>
+      <c r="B99" s="9">
+        <v>-0.033576942</v>
+      </c>
+      <c r="C99" s="9">
+        <v>-0.966857912</v>
+      </c>
+      <c r="D99" s="9">
+        <v>-0.024786093</v>
+      </c>
+      <c r="E99" s="9">
+        <v>-1.042464331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="9">
+        <v>19.4</v>
+      </c>
+      <c r="B100" s="9">
+        <v>-0.222178736</v>
+      </c>
+      <c r="C100" s="9">
+        <v>-0.903163061</v>
+      </c>
+      <c r="D100" s="9">
+        <v>-0.229148568</v>
+      </c>
+      <c r="E100" s="9">
+        <v>-0.983504823</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="9">
+        <v>19.6</v>
+      </c>
+      <c r="B101" s="9">
+        <v>-0.388795736</v>
+      </c>
+      <c r="C101" s="9">
+        <v>-0.749084479</v>
+      </c>
+      <c r="D101" s="9">
+        <v>-0.411451928</v>
+      </c>
+      <c r="E101" s="9">
+        <v>-0.823917451</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="B102" s="9">
+        <v>-0.51690088</v>
+      </c>
+      <c r="C102" s="9">
+        <v>-0.52160023</v>
+      </c>
+      <c r="D102" s="9">
+        <v>-0.553165509</v>
+      </c>
+      <c r="E102" s="9">
+        <v>-0.581349273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="9">
+        <v>20</v>
+      </c>
+      <c r="B103" s="9">
+        <v>-0.594189579</v>
+      </c>
+      <c r="C103" s="9">
+        <v>-0.245593549</v>
+      </c>
+      <c r="D103" s="9">
+        <v>-0.640176269</v>
+      </c>
+      <c r="E103" s="9">
+        <v>-0.28170981</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="9">
+        <v>20.2</v>
+      </c>
+      <c r="B104" s="9">
+        <v>-0.613900026</v>
+      </c>
+      <c r="C104" s="9">
+        <v>0.04887793</v>
+      </c>
+      <c r="D104" s="9">
+        <v>-0.66407895</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0.044593187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="9">
+        <v>20.4</v>
+      </c>
+      <c r="B105" s="9">
+        <v>-0.57548663</v>
+      </c>
+      <c r="C105" s="9">
+        <v>0.331581191</v>
+      </c>
+      <c r="D105" s="9">
+        <v>-0.622740688</v>
+      </c>
+      <c r="E105" s="9">
+        <v>0.362686617</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="9">
+        <v>20.6</v>
+      </c>
+      <c r="B106" s="9">
+        <v>-0.483537404</v>
+      </c>
+      <c r="C106" s="9">
+        <v>0.579764558</v>
+      </c>
+      <c r="D106" s="9">
+        <v>-0.52280898</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0.625441314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="9">
+        <v>20.8</v>
+      </c>
+      <c r="B107" s="9">
+        <v>-0.347828498</v>
+      </c>
+      <c r="C107" s="9">
+        <v>0.764625505</v>
+      </c>
+      <c r="D107" s="9">
+        <v>-0.377264885</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0.817631312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="9">
+        <v>21</v>
+      </c>
+      <c r="B108" s="9">
+        <v>-0.183277974</v>
+      </c>
+      <c r="C108" s="9">
+        <v>0.866140407</v>
+      </c>
+      <c r="D108" s="9">
+        <v>-0.201109836</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0.929396131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9">
+        <v>21.2</v>
+      </c>
+      <c r="B109" s="9">
+        <v>-0.007327235</v>
+      </c>
+      <c r="C109" s="9">
+        <v>0.878645929</v>
+      </c>
+      <c r="D109" s="9">
+        <v>-0.011668318</v>
+      </c>
+      <c r="E109" s="9">
+        <v>0.949137006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="9">
+        <v>21.4</v>
+      </c>
+      <c r="B110" s="9">
+        <v>0.162517513</v>
+      </c>
+      <c r="C110" s="9">
+        <v>0.806454201</v>
+      </c>
+      <c r="D110" s="9">
+        <v>0.172288694</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0.875493041</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="9">
+        <v>21.6</v>
+      </c>
+      <c r="B111" s="9">
+        <v>0.310382681</v>
+      </c>
+      <c r="C111" s="9">
+        <v>0.661413031</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0.333057776</v>
+      </c>
+      <c r="E111" s="9">
+        <v>0.720068258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="9">
+        <v>21.8</v>
+      </c>
+      <c r="B112" s="9">
+        <v>0.423446926</v>
+      </c>
+      <c r="C112" s="9">
+        <v>0.461995837</v>
+      </c>
+      <c r="D112" s="9">
+        <v>0.456210139</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.503204165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9">
+        <v>22</v>
+      </c>
+      <c r="B113" s="9">
+        <v>0.493097802</v>
+      </c>
+      <c r="C113" s="9">
+        <v>0.231392487</v>
+      </c>
+      <c r="D113" s="9">
+        <v>0.53190359</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0.249849495</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="B114" s="9">
+        <v>0.515602797</v>
+      </c>
+      <c r="C114" s="9">
+        <v>-0.005203941</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0.555464915</v>
+      </c>
+      <c r="E114" s="9">
+        <v>-0.013993047</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="9">
+        <v>22.4</v>
+      </c>
+      <c r="B115" s="9">
+        <v>0.492080019</v>
+      </c>
+      <c r="C115" s="9">
+        <v>-0.226218013</v>
+      </c>
+      <c r="D115" s="9">
+        <v>0.527625129</v>
+      </c>
+      <c r="E115" s="9">
+        <v>-0.257512818</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="9">
+        <v>22.6</v>
+      </c>
+      <c r="B116" s="9">
+        <v>0.427301609</v>
+      </c>
+      <c r="C116" s="9">
+        <v>-0.414298378</v>
+      </c>
+      <c r="D116" s="9">
+        <v>0.455827542</v>
+      </c>
+      <c r="E116" s="9">
+        <v>-0.451501808</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="9">
+        <v>22.8</v>
+      </c>
+      <c r="B117" s="9">
+        <v>0.329879732</v>
+      </c>
+      <c r="C117" s="9">
+        <v>-0.549997111</v>
+      </c>
+      <c r="D117" s="9">
+        <v>0.350652958</v>
+      </c>
+      <c r="E117" s="9">
+        <v>-0.590886735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="9">
+        <v>23</v>
+      </c>
+      <c r="B118" s="9">
+        <v>0.211461276</v>
+      </c>
+      <c r="C118" s="9">
+        <v>-0.623683609</v>
+      </c>
+      <c r="D118" s="9">
+        <v>0.223455402</v>
+      </c>
+      <c r="E118" s="9">
+        <v>-0.670502331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="B119" s="9">
+        <v>0.084496321</v>
+      </c>
+      <c r="C119" s="9">
+        <v>-0.636191545</v>
+      </c>
+      <c r="D119" s="9">
+        <v>0.086820031</v>
+      </c>
+      <c r="E119" s="9">
+        <v>-0.684945081</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="B120" s="9">
+        <v>-0.039365038</v>
+      </c>
+      <c r="C120" s="9">
+        <v>-0.594061841</v>
+      </c>
+      <c r="D120" s="9">
+        <v>-0.046382613</v>
+      </c>
+      <c r="E120" s="9">
+        <v>-0.637591658</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="B121" s="9">
+        <v>-0.150157967</v>
+      </c>
+      <c r="C121" s="9">
+        <v>-0.507478393</v>
+      </c>
+      <c r="D121" s="9">
+        <v>-0.164890443</v>
+      </c>
+      <c r="E121" s="9">
+        <v>-0.540465943</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="9">
+        <v>23.8</v>
+      </c>
+      <c r="B122" s="9">
+        <v>-0.240264457</v>
+      </c>
+      <c r="C122" s="9">
+        <v>-0.389567476</v>
+      </c>
+      <c r="D122" s="9">
+        <v>-0.26031255</v>
+      </c>
+      <c r="E122" s="9">
+        <v>-0.409505057</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9">
+        <v>24</v>
+      </c>
+      <c r="B123" s="9">
+        <v>-0.304871182</v>
+      </c>
+      <c r="C123" s="9">
+        <v>-0.254929753</v>
+      </c>
+      <c r="D123" s="9">
+        <v>-0.327538814</v>
+      </c>
+      <c r="E123" s="9">
+        <v>-0.261200358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="9">
+        <v>24.2</v>
+      </c>
+      <c r="B124" s="9">
+        <v>-0.342062999</v>
+      </c>
+      <c r="C124" s="9">
+        <v>-0.117614431</v>
+      </c>
+      <c r="D124" s="9">
+        <v>-0.364664238</v>
+      </c>
+      <c r="E124" s="9">
+        <v>-0.110882991</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="B125" s="9">
+        <v>-0.352539967</v>
+      </c>
+      <c r="C125" s="9">
+        <v>0.010496757</v>
+      </c>
+      <c r="D125" s="9">
+        <v>-0.37260122</v>
+      </c>
+      <c r="E125" s="9">
+        <v>0.028847419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="9">
+        <v>24.6</v>
+      </c>
+      <c r="B126" s="9">
+        <v>-0.338870774</v>
+      </c>
+      <c r="C126" s="9">
+        <v>0.12315782</v>
+      </c>
+      <c r="D126" s="9">
+        <v>-0.354924018</v>
+      </c>
+      <c r="E126" s="9">
+        <v>0.142903756</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="9">
+        <v>24.8</v>
+      </c>
+      <c r="B127" s="9">
+        <v>-0.304764461</v>
+      </c>
+      <c r="C127" s="9">
+        <v>0.213662466</v>
+      </c>
+      <c r="D127" s="9">
+        <v>-0.317241008</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0.22997756</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="9">
+        <v>25</v>
+      </c>
+      <c r="B128" s="9">
+        <v>-0.255164112</v>
+      </c>
+      <c r="C128" s="9">
+        <v>0.278043264</v>
+      </c>
+      <c r="D128" s="9">
+        <v>-0.264411368</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0.294627682</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="9">
+        <v>25.2</v>
+      </c>
+      <c r="B129" s="9">
+        <v>-0.195125789</v>
+      </c>
+      <c r="C129" s="9">
+        <v>0.31881136</v>
+      </c>
+      <c r="D129" s="9">
+        <v>-0.200929789</v>
+      </c>
+      <c r="E129" s="9">
+        <v>0.336246057</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="B130" s="9">
+        <v>-0.128890126</v>
+      </c>
+      <c r="C130" s="9">
+        <v>0.340769903</v>
+      </c>
+      <c r="D130" s="9">
+        <v>-0.13142213</v>
+      </c>
+      <c r="E130" s="9">
+        <v>0.355421849</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="B131" s="9">
+        <v>-0.059818085</v>
+      </c>
+      <c r="C131" s="9">
+        <v>0.347689046</v>
+      </c>
+      <c r="D131" s="9">
+        <v>-0.05990407</v>
+      </c>
+      <c r="E131" s="9">
+        <v>0.357478408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="9">
+        <v>25.8</v>
+      </c>
+      <c r="B132" s="9">
+        <v>0.009364529</v>
+      </c>
+      <c r="C132" s="9">
+        <v>0.342279827</v>
+      </c>
+      <c r="D132" s="9">
+        <v>0.010851288</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0.3486491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="9">
+        <v>26</v>
+      </c>
+      <c r="B133" s="9">
+        <v>0.076416105</v>
+      </c>
+      <c r="C133" s="9">
+        <v>0.326668882</v>
+      </c>
+      <c r="D133" s="9">
+        <v>0.079056474</v>
+      </c>
+      <c r="E133" s="9">
+        <v>0.332221767</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="9">
+        <v>26.2</v>
+      </c>
+      <c r="B134" s="9">
+        <v>0.139426017</v>
+      </c>
+      <c r="C134" s="9">
+        <v>0.301907315</v>
+      </c>
+      <c r="D134" s="9">
+        <v>0.143245903</v>
+      </c>
+      <c r="E134" s="9">
+        <v>0.308331894</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="9">
+        <v>26.4</v>
+      </c>
+      <c r="B135" s="9">
+        <v>0.1965317</v>
+      </c>
+      <c r="C135" s="9">
+        <v>0.267386934</v>
+      </c>
+      <c r="D135" s="9">
+        <v>0.201791747</v>
+      </c>
+      <c r="E135" s="9">
+        <v>0.275458005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="9">
+        <v>26.6</v>
+      </c>
+      <c r="B136" s="9">
+        <v>0.24559931</v>
+      </c>
+      <c r="C136" s="9">
+        <v>0.221133802</v>
+      </c>
+      <c r="D136" s="9">
+        <v>0.252680765</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0.231344013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="9">
+        <v>26.8</v>
+      </c>
+      <c r="B137" s="9">
+        <v>0.284048734</v>
+      </c>
+      <c r="C137" s="9">
+        <v>0.160863466</v>
+      </c>
+      <c r="D137" s="9">
+        <v>0.29340339</v>
+      </c>
+      <c r="E137" s="9">
+        <v>0.173348891</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="9">
+        <v>27</v>
+      </c>
+      <c r="B138" s="9">
+        <v>0.308911478</v>
+      </c>
+      <c r="C138" s="9">
+        <v>0.085154969</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0.320937481</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0.099165121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="9">
+        <v>27.2</v>
+      </c>
+      <c r="B139" s="9">
+        <v>0.317098287</v>
+      </c>
+      <c r="C139" s="9">
+        <v>-0.00567231</v>
+      </c>
+      <c r="D139" s="9">
+        <v>0.33194021</v>
+      </c>
+      <c r="E139" s="9">
+        <v>0.00817622</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="9">
+        <v>27.4</v>
+      </c>
+      <c r="B140" s="9">
+        <v>0.305864653</v>
+      </c>
+      <c r="C140" s="9">
+        <v>-0.108031567</v>
+      </c>
+      <c r="D140" s="9">
+        <v>0.323084857</v>
+      </c>
+      <c r="E140" s="9">
+        <v>-0.099673337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="9">
+        <v>27.6</v>
+      </c>
+      <c r="B141" s="9">
+        <v>0.273425273</v>
+      </c>
+      <c r="C141" s="9">
+        <v>-0.217141677</v>
+      </c>
+      <c r="D141" s="9">
+        <v>0.291406383</v>
+      </c>
+      <c r="E141" s="9">
+        <v>-0.217538086</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="9">
+        <v>27.8</v>
+      </c>
+      <c r="B142" s="9">
+        <v>0.218972774</v>
+      </c>
+      <c r="C142" s="9">
+        <v>-0.32657899</v>
+      </c>
+      <c r="D142" s="9">
+        <v>0.236268971</v>
+      </c>
+      <c r="E142" s="9">
+        <v>-0.332626795</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="9">
+        <v>28</v>
+      </c>
+      <c r="B143" s="9">
+        <v>0.143541764</v>
+      </c>
+      <c r="C143" s="9">
+        <v>-0.424776835</v>
+      </c>
+      <c r="D143" s="9">
+        <v>0.159082314</v>
+      </c>
+      <c r="E143" s="9">
+        <v>-0.436726276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="9">
+        <v>28.2</v>
+      </c>
+      <c r="B144" s="9">
+        <v>0.050649732</v>
+      </c>
+      <c r="C144" s="9">
+        <v>-0.499235358</v>
+      </c>
+      <c r="D144" s="9">
+        <v>0.062956642</v>
+      </c>
+      <c r="E144" s="9">
+        <v>-0.520018073</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="9">
+        <v>28.4</v>
+      </c>
+      <c r="B145" s="9">
+        <v>-0.053858627</v>
+      </c>
+      <c r="C145" s="9">
+        <v>-0.539357997</v>
+      </c>
+      <c r="D145" s="9">
+        <v>-0.046670542</v>
+      </c>
+      <c r="E145" s="9">
+        <v>-0.569561366</v>
       </c>
     </row>
   </sheetData>
